--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>Catégorie</t>
   </si>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">Keywords </t>
   </si>
   <si>
-    <t xml:space="preserve">"Paris" / manque de keywords pertinents </t>
-  </si>
-  <si>
-    <t>Remplacer par Lyon / ajouter des keywords</t>
+    <t>Balise inutile</t>
+  </si>
+  <si>
+    <t>Supprimer la balise</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Glossary/Keyword</t>
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -349,13 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -371,6 +364,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -380,22 +404,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,14 +419,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,16 +440,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,17 +477,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,43 +499,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,139 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,6 +690,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,35 +723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,23 +752,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,145 +796,145 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2814814814815" defaultRowHeight="15" customHeight="1"/>
@@ -1558,7 +1558,9 @@
       <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>67</v>
       </c>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -349,14 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -364,9 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +365,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,18 +378,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,8 +401,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,24 +448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,6 +458,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,13 +499,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,169 +619,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,21 +690,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,21 +704,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +728,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -776,16 +776,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -796,145 +796,145 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2814814814815" defaultRowHeight="15" customHeight="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Catégorie</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Taille des images</t>
   </si>
   <si>
-    <t>image trop grande</t>
-  </si>
-  <si>
-    <t>Changer la taille</t>
+    <t>Les images sont trop grandes</t>
+  </si>
+  <si>
+    <t>Changer la taille des images</t>
   </si>
   <si>
     <t>X</t>
@@ -59,34 +59,34 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img</t>
   </si>
   <si>
-    <t xml:space="preserve">Changer le titre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre inexistant </t>
-  </si>
-  <si>
-    <t>Mettre un titre correpsondant au site</t>
+    <t xml:space="preserve">Ajouter un titre </t>
+  </si>
+  <si>
+    <t>Le titre est inexistant</t>
+  </si>
+  <si>
+    <t>Choisir un titre correspondant au site</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
   </si>
   <si>
-    <t>Pas de langue par défault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue non précisé </t>
-  </si>
-  <si>
-    <t>Ajouter lang=""</t>
+    <t>Langue établie par défaut</t>
+  </si>
+  <si>
+    <t>Langue non précisée</t>
+  </si>
+  <si>
+    <t>Ajouter lang="fr"</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Global_attributes/lang</t>
   </si>
   <si>
-    <t>création d'un fichier .htaccess</t>
-  </si>
-  <si>
-    <t>Ameliorer le SEO</t>
+    <t>Absence d'un fichier .htaccess</t>
+  </si>
+  <si>
+    <t>Améliorer le SEO</t>
   </si>
   <si>
     <t>Créer le fichier .htaccess</t>
@@ -95,10 +95,10 @@
     <t>https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess</t>
   </si>
   <si>
-    <t>Activer la compression Gzip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichiers non compressé </t>
+    <t>Absence de la compression Gzip</t>
+  </si>
+  <si>
+    <t>Fichiers non compressés</t>
   </si>
   <si>
     <t>Remplir le fichier .htaccess</t>
@@ -110,19 +110,19 @@
     <t>Retirer les redirections</t>
   </si>
   <si>
-    <t>Trop de redirections</t>
-  </si>
-  <si>
-    <t>Supprimmer les herf peu utile</t>
+    <t>Trop de redirections inutiles</t>
+  </si>
+  <si>
+    <t>Supprimer les href peu utiles</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/a</t>
   </si>
   <si>
-    <t>Parametrer le Cache-Control et Expires</t>
-  </si>
-  <si>
-    <t>Age maximum des ressources non définit</t>
+    <t>Absence du Cache-Control et Expires</t>
+  </si>
+  <si>
+    <t>La durée maximum des ressources n'est pas définie</t>
   </si>
   <si>
     <t>Définir un temps maximum aux ressources</t>
@@ -131,121 +131,109 @@
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Cache-Control </t>
   </si>
   <si>
+    <t>SEO/Accessibilité</t>
+  </si>
+  <si>
+    <t>Les img&gt;alt ne sont pas conformes</t>
+  </si>
+  <si>
+    <t>Erreur de localisation (Paris)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer les "alt" pour les rendre conformes </t>
+  </si>
+  <si>
+    <t>JS et CSS non minifiés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le poids des fichiers n'est pas optimisé </t>
+  </si>
+  <si>
+    <t>Minifier les fichiers</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Glossary/minification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité </t>
+  </si>
+  <si>
+    <t>La taille du texte est insuffisante à certains endroits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lisibilité est fortement réduite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmenter le font size </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/font-size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème de contraste </t>
+  </si>
+  <si>
+    <t>Le contraste du texte et du fond est illisible (3:1)</t>
+  </si>
+  <si>
+    <t>Faire ressortir le texte</t>
+  </si>
+  <si>
+    <t>https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucune description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n'y a pas de déscription pour les utilisateurs </t>
+  </si>
+  <si>
+    <t>Remplir la description</t>
+  </si>
+  <si>
+    <t>https://www.seobility.net/en/wiki/Meta_Description?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=wiki_en&amp;utm_term={meta%20description}&amp;utm_content=lp_meta_description&amp;gclid=CjwKCAjw9aiIBhA1EiwAJ_GTSh2cbX_WqhCQNWc-Dzq-ube8BDqlVp_I_j1uN35JXLdAs2MOJEqQXxoCXzgQAvD_BwE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords </t>
+  </si>
+  <si>
+    <t>Balise inutile</t>
+  </si>
+  <si>
+    <t>Supprimer la balise</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Glossary/Keyword</t>
+  </si>
+  <si>
+    <t>Div "Keywords"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords caché interdit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer la div </t>
+  </si>
+  <si>
+    <t>https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d'exécution </t>
+  </si>
+  <si>
+    <t>Ajouter "defer" dans les balises</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/JavaScript/Reference/Statements/async_function</t>
+  </si>
+  <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Couleur du titre/text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texte non lisible </t>
-  </si>
-  <si>
-    <t>Rétablir la bonne couleur pour qu'il soit visible</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/CSS/visibility</t>
-  </si>
-  <si>
-    <t>SEO/Accessibilité</t>
-  </si>
-  <si>
-    <t>Rendre les img&gt;alt conforme</t>
-  </si>
-  <si>
-    <t>Erreur de localisation (Paris)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer les "alt" pour les rendre conformes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">minifier les ressources </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poids des fichiers non optimisé </t>
-  </si>
-  <si>
-    <t>Minifier les fichiers</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Glossary/minification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité </t>
-  </si>
-  <si>
-    <t>Taille du texte insuffisante à certain endroit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisibilité fortement réduite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenter le font size </t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/CSS/font-size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraste </t>
-  </si>
-  <si>
-    <t xml:space="preserve">contraste du texte et du fond illisible </t>
-  </si>
-  <si>
-    <t>Faire ressortir le texte</t>
-  </si>
-  <si>
-    <t>https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucune descritpion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de déscription pour les utilisateurs </t>
-  </si>
-  <si>
-    <t>Remplir la description</t>
-  </si>
-  <si>
-    <t>https://www.seobility.net/en/wiki/Meta_Description?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=wiki_en&amp;utm_term={meta%20description}&amp;utm_content=lp_meta_description&amp;gclid=CjwKCAjw9aiIBhA1EiwAJ_GTSh2cbX_WqhCQNWc-Dzq-ube8BDqlVp_I_j1uN35JXLdAs2MOJEqQXxoCXzgQAvD_BwE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keywords </t>
-  </si>
-  <si>
-    <t>Balise inutile</t>
-  </si>
-  <si>
-    <t>Supprimer la balise</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Glossary/Keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Div Keywords </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keywords caché interdit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer la div </t>
-  </si>
-  <si>
-    <t>https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas d'exécution </t>
-  </si>
-  <si>
-    <t>Ajouter async</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/JavaScript/Reference/Statements/async_function</t>
-  </si>
-  <si>
-    <t>Image de textes</t>
+    <t>Présence de textes sous forme d'image</t>
   </si>
   <si>
     <t>Les images de texte créent des obstacles à l'accessibilité</t>
@@ -257,10 +245,10 @@
     <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/exercises/3887</t>
   </si>
   <si>
-    <t>Largeur hauteur img</t>
-  </si>
-  <si>
-    <t>Pas de width/height precis</t>
+    <t>La largeur et la hauteur des images ne sont pas définies</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de width/height précis</t>
   </si>
   <si>
     <t>Ajouter width/height aux images</t>
@@ -269,10 +257,10 @@
     <t>https://developer.mozilla.org/fr/docs/Web/CSS/width</t>
   </si>
   <si>
-    <t>Contraste hover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio  de contraste insuffisant </t>
+    <t xml:space="preserve">Le contraste hover </t>
+  </si>
+  <si>
+    <t>Ratio de contraste insuffisant (&gt;3:1)</t>
   </si>
   <si>
     <t>Changer en couleur provisoire avec un meilleur ratio</t>
@@ -281,7 +269,7 @@
     <t>Robot</t>
   </si>
   <si>
-    <t>Page non indexée</t>
+    <t>Les pages ne sont pas indexées</t>
   </si>
   <si>
     <t>Ajouter la balise (robots)</t>
@@ -295,9 +283,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -349,10 +337,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,11 +367,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,7 +391,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,22 +408,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,21 +444,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,8 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,13 +487,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,169 +541,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,6 +678,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,13 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,21 +731,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,17 +768,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,145 +784,145 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1220,16 +1208,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2814814814815" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.2814814814815" customWidth="1"/>
-    <col min="2" max="2" width="36.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="47.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="45.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="42.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="25.6666666666667" customWidth="1"/>
@@ -1442,32 +1430,32 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
@@ -1487,42 +1475,42 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
+      <c r="F13" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:6">
@@ -1530,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:6">
@@ -1550,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:6">
@@ -1570,24 +1558,24 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>71</v>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -1601,13 +1589,13 @@
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -1627,7 +1615,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
@@ -1642,49 +1630,30 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -2662,29 +2631,27 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
     <hyperlink ref="F9" r:id="rId2" display="https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Cache-Control " tooltip="https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Cache-Control "/>
-    <hyperlink ref="F10" r:id="rId3" display="https://developer.mozilla.org/fr/docs/Web/CSS/visibility"/>
-    <hyperlink ref="F11" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
-    <hyperlink ref="F6" r:id="rId4" display="https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess"/>
-    <hyperlink ref="F7" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Glossary/GZip_compression"/>
-    <hyperlink ref="F4" r:id="rId6" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/a"/>
-    <hyperlink ref="F12" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Glossary/minification"/>
-    <hyperlink ref="F5" r:id="rId9" display="https://developer.mozilla.org/fr/docs/Web/HTML/Global_attributes/lang"/>
-    <hyperlink ref="F15" r:id="rId10" display="https://www.seobility.net/en/wiki/Meta_Description?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=wiki_en&amp;utm_term={meta%20description}&amp;utm_content=lp_meta_description&amp;gclid=CjwKCAjw9aiIBhA1EiwAJ_GTSh2cbX_WqhCQNWc-Dzq-ube8BDqlVp_I_j1uN35JXLdAs2MOJEqQXxoCXzgQAvD_BwE"/>
-    <hyperlink ref="F14" r:id="rId11" display="https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr" tooltip="https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://developer.mozilla.org/fr/docs/Web/CSS/font-size"/>
-    <hyperlink ref="F17" r:id="rId13" display="https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/"/>
-    <hyperlink ref="F16" r:id="rId14" display="https://developer.mozilla.org/fr/docs/Glossary/Keyword"/>
-    <hyperlink ref="F18" r:id="rId15" display="https://developer.mozilla.org/fr/docs/Web/JavaScript/Reference/Statements/async_function"/>
-    <hyperlink ref="F19" r:id="rId16" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/exercises/3887"/>
-    <hyperlink ref="F20" r:id="rId17" display="https://developer.mozilla.org/fr/docs/Web/CSS/width" tooltip="https://developer.mozilla.org/fr/docs/Web/CSS/width"/>
-    <hyperlink ref="F21" r:id="rId11" display="https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr"/>
-    <hyperlink ref="F22" r:id="rId18" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/meta"/>
+    <hyperlink ref="F10" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Glossary/GZip_compression"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/a"/>
+    <hyperlink ref="F11" r:id="rId7" display="https://developer.mozilla.org/fr/docs/Glossary/minification"/>
+    <hyperlink ref="F5" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/HTML/Global_attributes/lang"/>
+    <hyperlink ref="F14" r:id="rId9" display="https://www.seobility.net/en/wiki/Meta_Description?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=wiki_en&amp;utm_term={meta%20description}&amp;utm_content=lp_meta_description&amp;gclid=CjwKCAjw9aiIBhA1EiwAJ_GTSh2cbX_WqhCQNWc-Dzq-ube8BDqlVp_I_j1uN35JXLdAs2MOJEqQXxoCXzgQAvD_BwE"/>
+    <hyperlink ref="F13" r:id="rId10" display="https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr" tooltip="https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://developer.mozilla.org/fr/docs/Web/CSS/font-size"/>
+    <hyperlink ref="F16" r:id="rId12" display="https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/"/>
+    <hyperlink ref="F15" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Glossary/Keyword"/>
+    <hyperlink ref="F17" r:id="rId14" display="https://developer.mozilla.org/fr/docs/Web/JavaScript/Reference/Statements/async_function"/>
+    <hyperlink ref="F18" r:id="rId15" display="https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/exercises/3887"/>
+    <hyperlink ref="F19" r:id="rId16" display="https://developer.mozilla.org/fr/docs/Web/CSS/width" tooltip="https://developer.mozilla.org/fr/docs/Web/CSS/width"/>
+    <hyperlink ref="F20" r:id="rId10" display="https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F21" r:id="rId17" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/meta"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
